--- a/data/pca/factorExposure/factorExposure_2014-09-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-09-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.002371976988216124</v>
+        <v>0.01824771827418897</v>
       </c>
       <c r="C2">
-        <v>-0.115052807579203</v>
+        <v>-0.07093096980133633</v>
       </c>
       <c r="D2">
-        <v>0.001008371088133792</v>
+        <v>-0.03239284169331406</v>
       </c>
       <c r="E2">
-        <v>0.2319509384596498</v>
+        <v>0.0542576358688303</v>
       </c>
       <c r="F2">
-        <v>0.01995129466395006</v>
+        <v>0.1509419348082848</v>
       </c>
       <c r="G2">
-        <v>-0.08591490573815759</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.01095018358679483</v>
+      </c>
+      <c r="H2">
+        <v>-0.06033297663072675</v>
+      </c>
+      <c r="I2">
+        <v>0.02074688013554325</v>
+      </c>
+      <c r="J2">
+        <v>0.02013416794684165</v>
+      </c>
+      <c r="K2">
+        <v>-0.1808596036603573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.01289245728148444</v>
+        <v>0.0177968570086221</v>
       </c>
       <c r="C4">
-        <v>-0.1686843901544347</v>
+        <v>-0.1443936897344932</v>
       </c>
       <c r="D4">
-        <v>0.01367630708421875</v>
+        <v>-0.0632926788105217</v>
       </c>
       <c r="E4">
-        <v>0.06288639255861969</v>
+        <v>-0.02573650799664657</v>
       </c>
       <c r="F4">
-        <v>-0.08213646477386449</v>
+        <v>0.06486860610165969</v>
       </c>
       <c r="G4">
-        <v>-0.003491023576915961</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.01837267332604504</v>
+      </c>
+      <c r="H4">
+        <v>-0.09043312784282043</v>
+      </c>
+      <c r="I4">
+        <v>0.1033501617095273</v>
+      </c>
+      <c r="J4">
+        <v>0.05973873575638097</v>
+      </c>
+      <c r="K4">
+        <v>-0.1607144008690265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.02248774819536466</v>
+        <v>0.03769942141148887</v>
       </c>
       <c r="C6">
-        <v>-0.07914367846591526</v>
+        <v>-0.08745221765368399</v>
       </c>
       <c r="D6">
-        <v>0.0521480164169757</v>
+        <v>-0.03210701772125037</v>
       </c>
       <c r="E6">
-        <v>0.06952334717771411</v>
+        <v>0.04569699664248674</v>
       </c>
       <c r="F6">
-        <v>-0.021297183874841</v>
+        <v>0.02756071472597217</v>
       </c>
       <c r="G6">
-        <v>0.01596063754004908</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.04032275678926155</v>
+      </c>
+      <c r="H6">
+        <v>-0.02821106741348351</v>
+      </c>
+      <c r="I6">
+        <v>0.0008906395461222684</v>
+      </c>
+      <c r="J6">
+        <v>-0.08790696988659605</v>
+      </c>
+      <c r="K6">
+        <v>-0.08135244545092576</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.001891477700380901</v>
+        <v>0.01803157026569522</v>
       </c>
       <c r="C7">
-        <v>-0.06681464814262587</v>
+        <v>-0.0734643566272353</v>
       </c>
       <c r="D7">
-        <v>0.03081871028035427</v>
+        <v>-0.02891507046425386</v>
       </c>
       <c r="E7">
-        <v>0.02279138210789048</v>
+        <v>-0.01581870990755565</v>
       </c>
       <c r="F7">
-        <v>-0.04892016336517607</v>
+        <v>-0.003664491490860925</v>
       </c>
       <c r="G7">
-        <v>0.01743208928314344</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.03873201425641607</v>
+      </c>
+      <c r="H7">
+        <v>-0.09670838378949549</v>
+      </c>
+      <c r="I7">
+        <v>0.02598063575300417</v>
+      </c>
+      <c r="J7">
+        <v>-0.0002341273520515443</v>
+      </c>
+      <c r="K7">
+        <v>-0.03399844444335932</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.0110277578691436</v>
+        <v>8.899184047797727e-05</v>
       </c>
       <c r="C8">
-        <v>-0.07614205821454226</v>
+        <v>-0.06169082013086614</v>
       </c>
       <c r="D8">
-        <v>0.02760359753851836</v>
+        <v>-0.0430653772731769</v>
       </c>
       <c r="E8">
-        <v>0.07650583188609267</v>
+        <v>0.008442401644461523</v>
       </c>
       <c r="F8">
-        <v>-0.03674330895818427</v>
+        <v>0.06078467878340753</v>
       </c>
       <c r="G8">
-        <v>-0.02700708436892391</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.01858282011655648</v>
+      </c>
+      <c r="H8">
+        <v>-0.06105694787342193</v>
+      </c>
+      <c r="I8">
+        <v>0.0139440843399294</v>
+      </c>
+      <c r="J8">
+        <v>-0.002780218090239228</v>
+      </c>
+      <c r="K8">
+        <v>0.008561906368914601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.003566090700268889</v>
+        <v>0.0131428342396841</v>
       </c>
       <c r="C9">
-        <v>-0.1235745941177257</v>
+        <v>-0.1025527196922891</v>
       </c>
       <c r="D9">
-        <v>0.03506682622853381</v>
+        <v>-0.04507521463119278</v>
       </c>
       <c r="E9">
-        <v>0.02682675006249973</v>
+        <v>-0.004123593547462646</v>
       </c>
       <c r="F9">
-        <v>-0.03531000982257899</v>
+        <v>0.03002770533051936</v>
       </c>
       <c r="G9">
-        <v>0.03487942015335173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.004802435937915467</v>
+      </c>
+      <c r="H9">
+        <v>-0.08911145601692207</v>
+      </c>
+      <c r="I9">
+        <v>0.066885481217115</v>
+      </c>
+      <c r="J9">
+        <v>0.01364141857093264</v>
+      </c>
+      <c r="K9">
+        <v>-0.07333437980146199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.2795100840355097</v>
+        <v>0.2476537363776136</v>
       </c>
       <c r="C10">
-        <v>0.07618702070035679</v>
+        <v>0.08877264002364366</v>
       </c>
       <c r="D10">
-        <v>-0.02261309525775052</v>
+        <v>0.004614018249862553</v>
       </c>
       <c r="E10">
-        <v>-0.03603327743244032</v>
+        <v>0.01159665295031286</v>
       </c>
       <c r="F10">
-        <v>-0.0002888950366619085</v>
+        <v>-0.000743058002833072</v>
       </c>
       <c r="G10">
-        <v>0.02634200207058891</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02570888637590448</v>
+      </c>
+      <c r="H10">
+        <v>-0.03351318543999338</v>
+      </c>
+      <c r="I10">
+        <v>0.01850327815235705</v>
+      </c>
+      <c r="J10">
+        <v>0.183560644380379</v>
+      </c>
+      <c r="K10">
+        <v>0.1032620218749265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.00258700708971553</v>
+        <v>0.01591421125919313</v>
       </c>
       <c r="C11">
-        <v>-0.0676476227527633</v>
+        <v>-0.08238234830884823</v>
       </c>
       <c r="D11">
-        <v>0.0255661793800896</v>
+        <v>-0.03932586626594908</v>
       </c>
       <c r="E11">
-        <v>-0.01772814306832614</v>
+        <v>-0.00298044385535301</v>
       </c>
       <c r="F11">
-        <v>-0.0188795684803233</v>
+        <v>-0.01520215333804404</v>
       </c>
       <c r="G11">
-        <v>0.03783721061596683</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.008030414448763927</v>
+      </c>
+      <c r="H11">
+        <v>-0.02803716950747636</v>
+      </c>
+      <c r="I11">
+        <v>0.01863780253469608</v>
+      </c>
+      <c r="J11">
+        <v>-0.02233429646370506</v>
+      </c>
+      <c r="K11">
+        <v>0.01367236240656588</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.002122396647114783</v>
+        <v>0.01580108241191031</v>
       </c>
       <c r="C12">
-        <v>-0.04854162229452422</v>
+        <v>-0.05510714547306819</v>
       </c>
       <c r="D12">
-        <v>0.02804697837943359</v>
+        <v>-0.02346540026386064</v>
       </c>
       <c r="E12">
-        <v>-0.008065656479134225</v>
+        <v>0.01870531982198741</v>
       </c>
       <c r="F12">
-        <v>0.005617459696281607</v>
+        <v>-0.01464969112595702</v>
       </c>
       <c r="G12">
-        <v>0.06037445059156709</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.0264894223038507</v>
+      </c>
+      <c r="H12">
+        <v>-0.0252118937708117</v>
+      </c>
+      <c r="I12">
+        <v>0.01394997495178278</v>
+      </c>
+      <c r="J12">
+        <v>-0.01492137858963175</v>
+      </c>
+      <c r="K12">
+        <v>0.0007173055025572357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.01109634552069187</v>
+        <v>0.005252043557215006</v>
       </c>
       <c r="C13">
-        <v>-0.122549834240163</v>
+        <v>-0.1205144701186673</v>
       </c>
       <c r="D13">
-        <v>0.05087122536312337</v>
+        <v>-0.04130046051231592</v>
       </c>
       <c r="E13">
-        <v>0.05948851093091319</v>
+        <v>0.1192527981182686</v>
       </c>
       <c r="F13">
-        <v>0.0168986900097366</v>
+        <v>0.1050334482149478</v>
       </c>
       <c r="G13">
-        <v>0.1653827271638793</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.1227873365893203</v>
+      </c>
+      <c r="H13">
+        <v>-0.1362114145892897</v>
+      </c>
+      <c r="I13">
+        <v>-0.1615715346245017</v>
+      </c>
+      <c r="J13">
+        <v>0.1488051430015849</v>
+      </c>
+      <c r="K13">
+        <v>0.207162488513691</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.006233850158965326</v>
+        <v>0.01927237542749196</v>
       </c>
       <c r="C14">
-        <v>-0.07219264705365891</v>
+        <v>-0.07529805853306719</v>
       </c>
       <c r="D14">
-        <v>0.02926840408808096</v>
+        <v>-0.0515187356021008</v>
       </c>
       <c r="E14">
-        <v>0.03769351183940754</v>
+        <v>0.04881466426000507</v>
       </c>
       <c r="F14">
-        <v>0.004410917911657959</v>
+        <v>-0.002687000964934823</v>
       </c>
       <c r="G14">
-        <v>0.0594220136047127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.0785503210909464</v>
+      </c>
+      <c r="H14">
+        <v>-0.2047652023285093</v>
+      </c>
+      <c r="I14">
+        <v>-0.003370525819737757</v>
+      </c>
+      <c r="J14">
+        <v>-0.03886178286373717</v>
+      </c>
+      <c r="K14">
+        <v>0.1217377532932877</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.004852976223253623</v>
+        <v>0.003582635514887385</v>
       </c>
       <c r="C15">
-        <v>-0.101434824389366</v>
+        <v>-0.08313760213522993</v>
       </c>
       <c r="D15">
-        <v>0.04267413091701911</v>
+        <v>-0.03702268664197966</v>
       </c>
       <c r="E15">
-        <v>0.05324241928208306</v>
+        <v>-0.0009848586413225837</v>
       </c>
       <c r="F15">
-        <v>-0.03076200673733561</v>
+        <v>0.02460272127242416</v>
       </c>
       <c r="G15">
-        <v>0.03338080260960918</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.02520518877536949</v>
+      </c>
+      <c r="H15">
+        <v>-0.09462235943201285</v>
+      </c>
+      <c r="I15">
+        <v>0.0282426895137881</v>
+      </c>
+      <c r="J15">
+        <v>-0.02270650521375914</v>
+      </c>
+      <c r="K15">
+        <v>0.06752577825852198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.00689484556306134</v>
+        <v>0.01499072622061435</v>
       </c>
       <c r="C16">
-        <v>-0.05787830621312472</v>
+        <v>-0.06209760943581689</v>
       </c>
       <c r="D16">
-        <v>0.01934044635127806</v>
+        <v>-0.02769249299941112</v>
       </c>
       <c r="E16">
-        <v>-0.01074943998730314</v>
+        <v>-0.0001415519631979058</v>
       </c>
       <c r="F16">
-        <v>0.001362049772255787</v>
+        <v>-0.009863553919551588</v>
       </c>
       <c r="G16">
-        <v>0.02854431989744923</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.008292147529371366</v>
+      </c>
+      <c r="H16">
+        <v>-0.02072808246498238</v>
+      </c>
+      <c r="I16">
+        <v>0.0165238578240579</v>
+      </c>
+      <c r="J16">
+        <v>-0.0166345380701994</v>
+      </c>
+      <c r="K16">
+        <v>-0.002537588540939203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.01045391123560917</v>
+        <v>0.01469019701446404</v>
       </c>
       <c r="C20">
-        <v>-0.09106501924973821</v>
+        <v>-0.08675201321103158</v>
       </c>
       <c r="D20">
-        <v>0.02434315699931921</v>
+        <v>-0.02694768053631381</v>
       </c>
       <c r="E20">
-        <v>-0.01319589979499376</v>
+        <v>-0.02089724507066298</v>
       </c>
       <c r="F20">
-        <v>-0.04642556757680934</v>
+        <v>-0.01032750218543279</v>
       </c>
       <c r="G20">
-        <v>0.0884680871211096</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.03818896011775028</v>
+      </c>
+      <c r="H20">
+        <v>-0.07181361359065434</v>
+      </c>
+      <c r="I20">
+        <v>0.01809840182314645</v>
+      </c>
+      <c r="J20">
+        <v>-0.01439345070072461</v>
+      </c>
+      <c r="K20">
+        <v>-0.009511719632971725</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.01043454327505005</v>
+        <v>0.0123772544988746</v>
       </c>
       <c r="C21">
-        <v>-0.09919212313323469</v>
+        <v>-0.07212759514337581</v>
       </c>
       <c r="D21">
-        <v>-0.0408947425591282</v>
+        <v>-0.01981020697135528</v>
       </c>
       <c r="E21">
-        <v>0.05843726082812441</v>
+        <v>0.09570563550298571</v>
       </c>
       <c r="F21">
-        <v>0.02455292655496227</v>
+        <v>0.02167576944537654</v>
       </c>
       <c r="G21">
-        <v>0.04727322972776982</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.03144613126154667</v>
+      </c>
+      <c r="H21">
+        <v>-0.1408893687596246</v>
+      </c>
+      <c r="I21">
+        <v>-0.03778752952290883</v>
+      </c>
+      <c r="J21">
+        <v>0.006666096295038811</v>
+      </c>
+      <c r="K21">
+        <v>0.03546589989538882</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.03346716801839852</v>
+        <v>0.006499263370003966</v>
       </c>
       <c r="C22">
-        <v>-0.2217772530212444</v>
+        <v>-0.1790519384514039</v>
       </c>
       <c r="D22">
-        <v>-0.06658321279395273</v>
+        <v>-0.02062258099287583</v>
       </c>
       <c r="E22">
-        <v>0.265666525692994</v>
+        <v>-0.1044864442477288</v>
       </c>
       <c r="F22">
-        <v>-0.2158691751489552</v>
+        <v>0.5251167915739274</v>
       </c>
       <c r="G22">
-        <v>-0.1600290431586555</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.004911377938366818</v>
+      </c>
+      <c r="H22">
+        <v>0.2992331158888855</v>
+      </c>
+      <c r="I22">
+        <v>-0.05874622649058457</v>
+      </c>
+      <c r="J22">
+        <v>-0.01701777784748093</v>
+      </c>
+      <c r="K22">
+        <v>0.182506847793854</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.03290742436757101</v>
+        <v>0.01175643363551741</v>
       </c>
       <c r="C23">
-        <v>-0.2222182414686793</v>
+        <v>-0.1828143849502798</v>
       </c>
       <c r="D23">
-        <v>-0.06637192823723763</v>
+        <v>-0.02053495260364274</v>
       </c>
       <c r="E23">
-        <v>0.2620482434324099</v>
+        <v>-0.0994531835134625</v>
       </c>
       <c r="F23">
-        <v>-0.2132069023624691</v>
+        <v>0.5090312058276055</v>
       </c>
       <c r="G23">
-        <v>-0.1594179628602162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.003492924748247216</v>
+      </c>
+      <c r="H23">
+        <v>0.279818681908239</v>
+      </c>
+      <c r="I23">
+        <v>-0.04589874623005259</v>
+      </c>
+      <c r="J23">
+        <v>-0.01902434020778034</v>
+      </c>
+      <c r="K23">
+        <v>0.1718450406089959</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.0009702212596547097</v>
+        <v>0.01582991332607505</v>
       </c>
       <c r="C24">
-        <v>-0.05417017762318891</v>
+        <v>-0.06542008325354086</v>
       </c>
       <c r="D24">
-        <v>0.03848744085625049</v>
+        <v>-0.0400781255716969</v>
       </c>
       <c r="E24">
-        <v>-0.009525077255227676</v>
+        <v>-0.002160928627998756</v>
       </c>
       <c r="F24">
-        <v>-0.01444008430779012</v>
+        <v>-0.01010661198162095</v>
       </c>
       <c r="G24">
-        <v>0.05215048797818451</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02421655916315248</v>
+      </c>
+      <c r="H24">
+        <v>-0.0381543909839347</v>
+      </c>
+      <c r="I24">
+        <v>0.01847027518346639</v>
+      </c>
+      <c r="J24">
+        <v>-0.01807902830090936</v>
+      </c>
+      <c r="K24">
+        <v>0.003909232156416712</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.002697211791587654</v>
+        <v>0.01997974494491409</v>
       </c>
       <c r="C25">
-        <v>-0.06320258474418645</v>
+        <v>-0.06911633004605761</v>
       </c>
       <c r="D25">
-        <v>0.0177729180720562</v>
+        <v>-0.03014224748104797</v>
       </c>
       <c r="E25">
-        <v>-0.01661298305935252</v>
+        <v>-0.004428086345265654</v>
       </c>
       <c r="F25">
-        <v>-0.01255939890022389</v>
+        <v>-0.009044138975895734</v>
       </c>
       <c r="G25">
-        <v>0.04974776614089729</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.01851619600531611</v>
+      </c>
+      <c r="H25">
+        <v>-0.03277107167202733</v>
+      </c>
+      <c r="I25">
+        <v>0.01998776683716252</v>
+      </c>
+      <c r="J25">
+        <v>-0.005259672292744795</v>
+      </c>
+      <c r="K25">
+        <v>0.01776681526575619</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.001306632472467588</v>
+        <v>0.02329651233742776</v>
       </c>
       <c r="C26">
-        <v>-0.05754953930507452</v>
+        <v>-0.05719165904995407</v>
       </c>
       <c r="D26">
-        <v>0.05492201092121243</v>
+        <v>-0.06479499219558221</v>
       </c>
       <c r="E26">
-        <v>0.01650989409517433</v>
+        <v>-0.002183695390740421</v>
       </c>
       <c r="F26">
-        <v>0.008287720428444625</v>
+        <v>-0.01925420668966536</v>
       </c>
       <c r="G26">
-        <v>0.02963098370804693</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.001421001949649835</v>
+      </c>
+      <c r="H26">
+        <v>-0.09763639466620917</v>
+      </c>
+      <c r="I26">
+        <v>0.06406747049733437</v>
+      </c>
+      <c r="J26">
+        <v>-0.02504937821569699</v>
+      </c>
+      <c r="K26">
+        <v>-0.1167420550935209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.3769778106329327</v>
+        <v>0.3164389007554853</v>
       </c>
       <c r="C28">
-        <v>0.08686463262705854</v>
+        <v>0.1056896330276527</v>
       </c>
       <c r="D28">
-        <v>-0.02245499835429604</v>
+        <v>0.03203943646187404</v>
       </c>
       <c r="E28">
-        <v>-0.07882307608749729</v>
+        <v>0.01053205622652025</v>
       </c>
       <c r="F28">
-        <v>0.09130438287063024</v>
+        <v>0.04288667184254754</v>
       </c>
       <c r="G28">
-        <v>-0.02952605531618198</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.1222999613533516</v>
+      </c>
+      <c r="H28">
+        <v>-0.05601303582998485</v>
+      </c>
+      <c r="I28">
+        <v>-0.06583050930799658</v>
+      </c>
+      <c r="J28">
+        <v>0.2081089532366343</v>
+      </c>
+      <c r="K28">
+        <v>-0.01888646628995095</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.005485831437729933</v>
+        <v>0.01367157572672326</v>
       </c>
       <c r="C29">
-        <v>-0.07553834261452584</v>
+        <v>-0.08190968291957877</v>
       </c>
       <c r="D29">
-        <v>0.0443303387825449</v>
+        <v>-0.0564923736186011</v>
       </c>
       <c r="E29">
-        <v>0.03508475591907472</v>
+        <v>0.05228511322456311</v>
       </c>
       <c r="F29">
-        <v>-0.003150098790198333</v>
+        <v>0.004554633512607378</v>
       </c>
       <c r="G29">
-        <v>0.09657456008748248</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.1197045191551541</v>
+      </c>
+      <c r="H29">
+        <v>-0.2903526622319004</v>
+      </c>
+      <c r="I29">
+        <v>-0.001446783733483882</v>
+      </c>
+      <c r="J29">
+        <v>-0.02436409090920005</v>
+      </c>
+      <c r="K29">
+        <v>0.190580957416683</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.01999421047157061</v>
+        <v>0.02942131702434702</v>
       </c>
       <c r="C30">
-        <v>-0.1724147933786157</v>
+        <v>-0.1434416909594181</v>
       </c>
       <c r="D30">
-        <v>0.05927431286503032</v>
+        <v>-0.05661854080836742</v>
       </c>
       <c r="E30">
-        <v>0.03550469894319317</v>
+        <v>-0.01567603019825972</v>
       </c>
       <c r="F30">
-        <v>-0.0554247500859068</v>
+        <v>0.06424890831744463</v>
       </c>
       <c r="G30">
-        <v>0.005981244796239983</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01028723044039499</v>
+      </c>
+      <c r="H30">
+        <v>-0.03732973699308074</v>
+      </c>
+      <c r="I30">
+        <v>0.04014904316336423</v>
+      </c>
+      <c r="J30">
+        <v>-0.03104481250380815</v>
+      </c>
+      <c r="K30">
+        <v>-0.08912297919789952</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.004124151164973661</v>
+        <v>0.01382092841273123</v>
       </c>
       <c r="C31">
-        <v>-0.05819353917599313</v>
+        <v>-0.08102340711917605</v>
       </c>
       <c r="D31">
-        <v>0.04070259673051656</v>
+        <v>-0.04393504711905846</v>
       </c>
       <c r="E31">
-        <v>-0.01527089543645995</v>
+        <v>0.003932147243939406</v>
       </c>
       <c r="F31">
-        <v>0.01386994976657343</v>
+        <v>-0.003646226003408787</v>
       </c>
       <c r="G31">
-        <v>0.01696978870915555</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.02651134638170746</v>
+      </c>
+      <c r="H31">
+        <v>-0.03171508923250195</v>
+      </c>
+      <c r="I31">
+        <v>0.02021908172740885</v>
+      </c>
+      <c r="J31">
+        <v>-0.009009713565883731</v>
+      </c>
+      <c r="K31">
+        <v>0.03179393044481122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.0167959887579589</v>
+        <v>0.02161285056449809</v>
       </c>
       <c r="C32">
-        <v>-0.0868457503771408</v>
+        <v>-0.05197667739965272</v>
       </c>
       <c r="D32">
-        <v>-0.007350852468369581</v>
+        <v>-0.02039041543132376</v>
       </c>
       <c r="E32">
-        <v>0.1589934262431334</v>
+        <v>0.05940234047884918</v>
       </c>
       <c r="F32">
-        <v>-0.03321652555782319</v>
+        <v>0.1021513647730767</v>
       </c>
       <c r="G32">
-        <v>0.06126595981611706</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.06840525502957161</v>
+      </c>
+      <c r="H32">
+        <v>-0.1652329086676077</v>
+      </c>
+      <c r="I32">
+        <v>-0.1152924946040269</v>
+      </c>
+      <c r="J32">
+        <v>0.2286056319360517</v>
+      </c>
+      <c r="K32">
+        <v>0.03303473971586134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.01147468514731414</v>
+        <v>0.01663514028043747</v>
       </c>
       <c r="C33">
-        <v>-0.0892589834847531</v>
+        <v>-0.1053285703567605</v>
       </c>
       <c r="D33">
-        <v>0.06437938800262703</v>
+        <v>-0.05194217888230716</v>
       </c>
       <c r="E33">
-        <v>0.01473237167128848</v>
+        <v>-0.002915300543346244</v>
       </c>
       <c r="F33">
-        <v>0.001157783266087638</v>
+        <v>0.01197355147631466</v>
       </c>
       <c r="G33">
-        <v>0.03113593857448571</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.02346901382611795</v>
+      </c>
+      <c r="H33">
+        <v>-0.05162717926790654</v>
+      </c>
+      <c r="I33">
+        <v>0.02080399961524745</v>
+      </c>
+      <c r="J33">
+        <v>0.02201137631575825</v>
+      </c>
+      <c r="K33">
+        <v>0.003441482009572971</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.001179139156229638</v>
+        <v>0.01538497050471241</v>
       </c>
       <c r="C34">
-        <v>-0.04600068641993859</v>
+        <v>-0.04815497297464817</v>
       </c>
       <c r="D34">
-        <v>0.02205987574403821</v>
+        <v>-0.02037296806213398</v>
       </c>
       <c r="E34">
-        <v>0.003483175256836786</v>
+        <v>0.006756341654960231</v>
       </c>
       <c r="F34">
-        <v>0.006453648858412524</v>
+        <v>-0.01177994653701534</v>
       </c>
       <c r="G34">
-        <v>0.03338030968924738</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.0154508168810855</v>
+      </c>
+      <c r="H34">
+        <v>-0.007120372485120422</v>
+      </c>
+      <c r="I34">
+        <v>0.02037775588659873</v>
+      </c>
+      <c r="J34">
+        <v>-0.01131598973783637</v>
+      </c>
+      <c r="K34">
+        <v>0.005033919796761598</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.002846197791631746</v>
+        <v>0.01044871878734829</v>
       </c>
       <c r="C35">
-        <v>-0.02395543951252424</v>
+        <v>-0.04365027181132292</v>
       </c>
       <c r="D35">
-        <v>0.008020794007843297</v>
+        <v>-0.02299652303768612</v>
       </c>
       <c r="E35">
-        <v>0.009783840561631849</v>
+        <v>0.01315597045227126</v>
       </c>
       <c r="F35">
-        <v>-0.004208852498714249</v>
+        <v>0.005569554236158691</v>
       </c>
       <c r="G35">
-        <v>0.02878524078467337</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.04541777350746026</v>
+      </c>
+      <c r="H35">
+        <v>-0.1472363875858126</v>
+      </c>
+      <c r="I35">
+        <v>0.03098094977259823</v>
+      </c>
+      <c r="J35">
+        <v>0.007150709149226552</v>
+      </c>
+      <c r="K35">
+        <v>0.1656607609956045</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.002704781271072921</v>
+        <v>0.01629828367045974</v>
       </c>
       <c r="C36">
-        <v>-0.05210245369511363</v>
+        <v>-0.04892971408645365</v>
       </c>
       <c r="D36">
-        <v>0.04847332033511672</v>
+        <v>-0.04946888765572269</v>
       </c>
       <c r="E36">
-        <v>0.005840850339227952</v>
+        <v>0.002408176956524464</v>
       </c>
       <c r="F36">
-        <v>-6.029731913438555e-05</v>
+        <v>0.003337170129335332</v>
       </c>
       <c r="G36">
-        <v>0.01836415067630843</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.003109115382626044</v>
+      </c>
+      <c r="H36">
+        <v>-0.07395366424730432</v>
+      </c>
+      <c r="I36">
+        <v>0.01762988539855325</v>
+      </c>
+      <c r="J36">
+        <v>-0.009705445832945872</v>
+      </c>
+      <c r="K36">
+        <v>-0.04043182965772316</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.030412317193224</v>
+        <v>0.01261092906339651</v>
       </c>
       <c r="C38">
-        <v>-0.05966137050237526</v>
+        <v>-0.06166567685540834</v>
       </c>
       <c r="D38">
-        <v>0.04815401447436413</v>
+        <v>-0.04628135510762752</v>
       </c>
       <c r="E38">
-        <v>-0.005691284983108529</v>
+        <v>-0.02804702517026237</v>
       </c>
       <c r="F38">
-        <v>-0.01219564057958578</v>
+        <v>0.01310541666125461</v>
       </c>
       <c r="G38">
-        <v>0.01497594069824288</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.00266717960515893</v>
+      </c>
+      <c r="H38">
+        <v>-0.08042790297663337</v>
+      </c>
+      <c r="I38">
+        <v>-0.02988824192079169</v>
+      </c>
+      <c r="J38">
+        <v>0.05825524022349408</v>
+      </c>
+      <c r="K38">
+        <v>0.0368696436456695</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.002482805018507345</v>
+        <v>0.01707540417697321</v>
       </c>
       <c r="C39">
-        <v>-0.1298448326522465</v>
+        <v>-0.1283221549454524</v>
       </c>
       <c r="D39">
-        <v>0.04906433330610231</v>
+        <v>-0.05675755153128432</v>
       </c>
       <c r="E39">
-        <v>0.008532205446065484</v>
+        <v>0.01203965032895508</v>
       </c>
       <c r="F39">
-        <v>-0.02464008961466082</v>
+        <v>-0.002108047868672002</v>
       </c>
       <c r="G39">
-        <v>0.07732872077278537</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.04126682106886707</v>
+      </c>
+      <c r="H39">
+        <v>-0.0515359961365757</v>
+      </c>
+      <c r="I39">
+        <v>0.01618233003478494</v>
+      </c>
+      <c r="J39">
+        <v>-0.07491532604208914</v>
+      </c>
+      <c r="K39">
+        <v>-0.0334678915691514</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.005852556204233593</v>
+        <v>0.01144316928166511</v>
       </c>
       <c r="C40">
-        <v>-0.02379011183708277</v>
+        <v>-0.05509038671763326</v>
       </c>
       <c r="D40">
-        <v>0.0259732722982208</v>
+        <v>-0.03775171729036642</v>
       </c>
       <c r="E40">
-        <v>0.1314260172658695</v>
+        <v>0.03233879854797475</v>
       </c>
       <c r="F40">
-        <v>-0.08064779861636953</v>
+        <v>0.04116809284643644</v>
       </c>
       <c r="G40">
-        <v>0.05404062559581536</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.1522817817403019</v>
+      </c>
+      <c r="H40">
+        <v>-0.03190170524297327</v>
+      </c>
+      <c r="I40">
+        <v>0.03587544736679255</v>
+      </c>
+      <c r="J40">
+        <v>0.01091383941293039</v>
+      </c>
+      <c r="K40">
+        <v>0.2691170426434095</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.01153780149481361</v>
+        <v>0.02192727030487595</v>
       </c>
       <c r="C41">
-        <v>-0.02234498350533747</v>
+        <v>-0.04793032962145767</v>
       </c>
       <c r="D41">
-        <v>0.006954558909051178</v>
+        <v>-0.0190241595969295</v>
       </c>
       <c r="E41">
-        <v>-0.01624674977548471</v>
+        <v>0.0005443517630137573</v>
       </c>
       <c r="F41">
-        <v>0.03491719039288271</v>
+        <v>-0.02396001045694308</v>
       </c>
       <c r="G41">
-        <v>-0.03409376516187249</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.009254274215103145</v>
+      </c>
+      <c r="H41">
+        <v>-0.02017876658532351</v>
+      </c>
+      <c r="I41">
+        <v>-0.003392143126659</v>
+      </c>
+      <c r="J41">
+        <v>0.02654933337647149</v>
+      </c>
+      <c r="K41">
+        <v>0.05313360419967617</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.002588379205807635</v>
+        <v>0.01844939612855143</v>
       </c>
       <c r="C43">
-        <v>-0.02361252891743288</v>
+        <v>-0.0446493701155061</v>
       </c>
       <c r="D43">
-        <v>0.01267800120729982</v>
+        <v>-0.03152332844293264</v>
       </c>
       <c r="E43">
-        <v>-0.008162415420543027</v>
+        <v>-0.008450218364823932</v>
       </c>
       <c r="F43">
-        <v>-0.001082747728617896</v>
+        <v>-0.01254052363956144</v>
       </c>
       <c r="G43">
-        <v>-0.003112659438430862</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.0005923659151152094</v>
+      </c>
+      <c r="H43">
+        <v>-0.03881622961499766</v>
+      </c>
+      <c r="I43">
+        <v>-0.001384062151999585</v>
+      </c>
+      <c r="J43">
+        <v>-0.001285711869401983</v>
+      </c>
+      <c r="K43">
+        <v>0.04018097346391834</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.02122355580655568</v>
+        <v>0.01380776166223577</v>
       </c>
       <c r="C44">
-        <v>-0.1006984000269494</v>
+        <v>-0.09763931451482837</v>
       </c>
       <c r="D44">
-        <v>0.02655809541693234</v>
+        <v>-0.05995633341056082</v>
       </c>
       <c r="E44">
-        <v>0.04209149765781814</v>
+        <v>-0.02747065693611387</v>
       </c>
       <c r="F44">
-        <v>-0.0574274890206178</v>
+        <v>0.06353908561408557</v>
       </c>
       <c r="G44">
-        <v>0.03977946908559035</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.04511191191975533</v>
+      </c>
+      <c r="H44">
+        <v>-0.05307250882960439</v>
+      </c>
+      <c r="I44">
+        <v>0.008824865311810422</v>
+      </c>
+      <c r="J44">
+        <v>-0.04710447067608737</v>
+      </c>
+      <c r="K44">
+        <v>-0.08461983680456536</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.008173207661839873</v>
+        <v>0.004105802805620676</v>
       </c>
       <c r="C46">
-        <v>-0.06539841649578709</v>
+        <v>-0.06354472556253736</v>
       </c>
       <c r="D46">
-        <v>0.04288781175130466</v>
+        <v>-0.03226631625066626</v>
       </c>
       <c r="E46">
-        <v>0.02865631807136882</v>
+        <v>0.01011092611110023</v>
       </c>
       <c r="F46">
-        <v>-0.01006627133158354</v>
+        <v>-0.01049198342739539</v>
       </c>
       <c r="G46">
-        <v>0.05477645600841289</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.03782695313776409</v>
+      </c>
+      <c r="H46">
+        <v>-0.1016354146549916</v>
+      </c>
+      <c r="I46">
+        <v>-0.01841720802289167</v>
+      </c>
+      <c r="J46">
+        <v>-0.01358794263014756</v>
+      </c>
+      <c r="K46">
+        <v>0.07758857560369092</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.004072508927699892</v>
+        <v>0.02242126174379427</v>
       </c>
       <c r="C47">
-        <v>-0.07344623576922343</v>
+        <v>-0.07998067106788646</v>
       </c>
       <c r="D47">
-        <v>0.03887717929080738</v>
+        <v>-0.04525335829391813</v>
       </c>
       <c r="E47">
-        <v>-0.01858007995849872</v>
+        <v>0.008771321742410075</v>
       </c>
       <c r="F47">
-        <v>0.041056102620536</v>
+        <v>-0.01982097141627122</v>
       </c>
       <c r="G47">
-        <v>0.04549987095515583</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.008282888872205985</v>
+      </c>
+      <c r="H47">
+        <v>-0.0703351821571829</v>
+      </c>
+      <c r="I47">
+        <v>-0.008107626797364922</v>
+      </c>
+      <c r="J47">
+        <v>0.02368893330093086</v>
+      </c>
+      <c r="K47">
+        <v>0.03297417961380894</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.008294404983395717</v>
+        <v>0.02199663130238701</v>
       </c>
       <c r="C48">
-        <v>-0.05590093397192088</v>
+        <v>-0.05102828249534143</v>
       </c>
       <c r="D48">
-        <v>0.05669368141317314</v>
+        <v>-0.05641133308418842</v>
       </c>
       <c r="E48">
-        <v>0.002295069430833853</v>
+        <v>-0.00352784963440669</v>
       </c>
       <c r="F48">
-        <v>-0.004250947314910798</v>
+        <v>-0.005701872265612497</v>
       </c>
       <c r="G48">
-        <v>0.02246664146686529</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.004231448120006405</v>
+      </c>
+      <c r="H48">
+        <v>-0.09420893712002187</v>
+      </c>
+      <c r="I48">
+        <v>0.04569184596502899</v>
+      </c>
+      <c r="J48">
+        <v>-0.01658987149321712</v>
+      </c>
+      <c r="K48">
+        <v>-0.0920931006285946</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.007634665184020736</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.02633507026706272</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.00242349275989155</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.007857496692229854</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>-0.03315851393006516</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.03294712698612096</v>
+      </c>
+      <c r="H49">
+        <v>0.02211962582448229</v>
+      </c>
+      <c r="I49">
+        <v>0.05277972058403683</v>
+      </c>
+      <c r="J49">
+        <v>-0.03301759170266726</v>
+      </c>
+      <c r="K49">
+        <v>-0.02471408173273425</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.0008594643380624706</v>
+        <v>0.01503416054765044</v>
       </c>
       <c r="C50">
-        <v>-0.06933336194999115</v>
+        <v>-0.08027285706670671</v>
       </c>
       <c r="D50">
-        <v>0.03389538615598745</v>
+        <v>-0.03317329136015517</v>
       </c>
       <c r="E50">
-        <v>-0.002200776984263882</v>
+        <v>-0.005101044431783783</v>
       </c>
       <c r="F50">
-        <v>-0.002267817812701951</v>
+        <v>0.003415667590180788</v>
       </c>
       <c r="G50">
-        <v>0.02361731769625874</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.008421368703210013</v>
+      </c>
+      <c r="H50">
+        <v>-0.05174022532493722</v>
+      </c>
+      <c r="I50">
+        <v>0.00769482599507301</v>
+      </c>
+      <c r="J50">
+        <v>0.04674626149444266</v>
+      </c>
+      <c r="K50">
+        <v>0.02645290570846068</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.002869056299710832</v>
+        <v>-0.006366396396012352</v>
       </c>
       <c r="C51">
-        <v>-0.07964716325165068</v>
+        <v>-0.03689841940656217</v>
       </c>
       <c r="D51">
-        <v>0.007858604569657373</v>
+        <v>-0.02270944721425895</v>
       </c>
       <c r="E51">
-        <v>0.05200730889519483</v>
+        <v>0.01094661152523231</v>
       </c>
       <c r="F51">
-        <v>-0.05821420805562143</v>
+        <v>0.02917139065457989</v>
       </c>
       <c r="G51">
-        <v>0.0111604397386534</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.02953856385098042</v>
+      </c>
+      <c r="H51">
+        <v>-0.09866810473250903</v>
+      </c>
+      <c r="I51">
+        <v>0.03986000555612845</v>
+      </c>
+      <c r="J51">
+        <v>0.0004365945501370308</v>
+      </c>
+      <c r="K51">
+        <v>-0.1041735918417167</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.0367422667299741</v>
+        <v>0.05714401179075231</v>
       </c>
       <c r="C53">
-        <v>-0.1335201262166751</v>
+        <v>-0.131117961927356</v>
       </c>
       <c r="D53">
-        <v>0.06949593114746734</v>
+        <v>-0.0578599501538566</v>
       </c>
       <c r="E53">
-        <v>-0.1256404366384576</v>
+        <v>0.0174710322083456</v>
       </c>
       <c r="F53">
-        <v>0.07204087317240303</v>
+        <v>-0.07340030245973103</v>
       </c>
       <c r="G53">
-        <v>-0.02578024886970024</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.08391724483602556</v>
+      </c>
+      <c r="H53">
+        <v>0.0312362608038955</v>
+      </c>
+      <c r="I53">
+        <v>0.00814247049204384</v>
+      </c>
+      <c r="J53">
+        <v>0.04323027739406497</v>
+      </c>
+      <c r="K53">
+        <v>0.009289398999857576</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.00182528854641076</v>
+        <v>0.01815914362211932</v>
       </c>
       <c r="C54">
-        <v>-0.06218812177118679</v>
+        <v>-0.07484301408132753</v>
       </c>
       <c r="D54">
-        <v>0.009558882939220269</v>
+        <v>-0.01392404346664567</v>
       </c>
       <c r="E54">
-        <v>-0.02710326035438532</v>
+        <v>0.008099124923627613</v>
       </c>
       <c r="F54">
-        <v>-0.006526921548582375</v>
+        <v>-0.02294761181228251</v>
       </c>
       <c r="G54">
-        <v>0.01400915831760552</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.01767353752278709</v>
+      </c>
+      <c r="H54">
+        <v>-0.04644673259999793</v>
+      </c>
+      <c r="I54">
+        <v>0.03064940248635148</v>
+      </c>
+      <c r="J54">
+        <v>-0.0204641713116111</v>
+      </c>
+      <c r="K54">
+        <v>0.00570332891667479</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.01853705072264392</v>
+        <v>0.03142638543490817</v>
       </c>
       <c r="C55">
-        <v>-0.08473004986793521</v>
+        <v>-0.0837300824542426</v>
       </c>
       <c r="D55">
-        <v>0.06652155792704954</v>
+        <v>-0.05488735720748652</v>
       </c>
       <c r="E55">
-        <v>-0.05551317732221252</v>
+        <v>0.006514823535608604</v>
       </c>
       <c r="F55">
-        <v>0.05026757455103305</v>
+        <v>-0.05447199540824993</v>
       </c>
       <c r="G55">
-        <v>0.009036657925437929</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.03998829424529836</v>
+      </c>
+      <c r="H55">
+        <v>0.01830992112252404</v>
+      </c>
+      <c r="I55">
+        <v>0.01387847042107831</v>
+      </c>
+      <c r="J55">
+        <v>-0.005650476047597809</v>
+      </c>
+      <c r="K55">
+        <v>0.002627775967217383</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.02000508385926262</v>
+        <v>0.04454524458077038</v>
       </c>
       <c r="C56">
-        <v>-0.1636078770718968</v>
+        <v>-0.1496685093969659</v>
       </c>
       <c r="D56">
-        <v>0.06342736659298225</v>
+        <v>-0.07990012601271056</v>
       </c>
       <c r="E56">
-        <v>-0.1122293164861825</v>
+        <v>0.0463829002081205</v>
       </c>
       <c r="F56">
-        <v>0.1142153543457104</v>
+        <v>-0.09617456313773244</v>
       </c>
       <c r="G56">
-        <v>-0.06565773312623642</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.1605730085628176</v>
+      </c>
+      <c r="H56">
+        <v>0.04566572827356878</v>
+      </c>
+      <c r="I56">
+        <v>0.03328629990265761</v>
+      </c>
+      <c r="J56">
+        <v>0.02849534914418141</v>
+      </c>
+      <c r="K56">
+        <v>-0.01855935311891322</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.02766127264007972</v>
+        <v>0.02193639107731467</v>
       </c>
       <c r="C58">
-        <v>-0.2990117956797678</v>
+        <v>-0.1841981319925669</v>
       </c>
       <c r="D58">
-        <v>-0.04623123503094948</v>
+        <v>-0.0423708487968513</v>
       </c>
       <c r="E58">
-        <v>0.1582882758416747</v>
+        <v>-0.04357982787334082</v>
       </c>
       <c r="F58">
-        <v>-0.2766374314315123</v>
+        <v>0.3135563350189948</v>
       </c>
       <c r="G58">
-        <v>-0.1734309318217054</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.07942246686813045</v>
+      </c>
+      <c r="H58">
+        <v>-0.06725163893717334</v>
+      </c>
+      <c r="I58">
+        <v>-0.01918357074629999</v>
+      </c>
+      <c r="J58">
+        <v>0.05277094282480783</v>
+      </c>
+      <c r="K58">
+        <v>-0.3597458487802564</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.2824718240787231</v>
+        <v>0.2889785948192324</v>
       </c>
       <c r="C59">
-        <v>-0.003609574107033123</v>
+        <v>0.04441083462104447</v>
       </c>
       <c r="D59">
-        <v>-0.02717554258761857</v>
+        <v>0.003740573037225611</v>
       </c>
       <c r="E59">
-        <v>0.05525324844140208</v>
+        <v>0.0165204690343849</v>
       </c>
       <c r="F59">
-        <v>0.04334600720361739</v>
+        <v>0.04647050848563739</v>
       </c>
       <c r="G59">
-        <v>0.008861661511540752</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.0002454094630454717</v>
+      </c>
+      <c r="H59">
+        <v>0.02070431095099921</v>
+      </c>
+      <c r="I59">
+        <v>-0.02469662780195506</v>
+      </c>
+      <c r="J59">
+        <v>0.02096464085580826</v>
+      </c>
+      <c r="K59">
+        <v>0.02707171044034464</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.1036761426929571</v>
+        <v>0.1448872033683123</v>
       </c>
       <c r="C60">
-        <v>-0.1439586266916195</v>
+        <v>-0.151929999115836</v>
       </c>
       <c r="D60">
-        <v>0.07437838052282802</v>
+        <v>-0.04945295359917783</v>
       </c>
       <c r="E60">
-        <v>-0.0361106043358622</v>
+        <v>0.04136641997636509</v>
       </c>
       <c r="F60">
-        <v>0.09351840918362825</v>
+        <v>-0.1163548076817239</v>
       </c>
       <c r="G60">
-        <v>0.3138903135306383</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.2555227077271827</v>
+      </c>
+      <c r="H60">
+        <v>0.2420013268125035</v>
+      </c>
+      <c r="I60">
+        <v>0.0001679875085935881</v>
+      </c>
+      <c r="J60">
+        <v>-0.02364684712607253</v>
+      </c>
+      <c r="K60">
+        <v>-0.03225733269945216</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.0004728422070100729</v>
+        <v>0.02032685019866899</v>
       </c>
       <c r="C61">
-        <v>-0.08314168818717682</v>
+        <v>-0.09634235671535196</v>
       </c>
       <c r="D61">
-        <v>0.05558921196313103</v>
+        <v>-0.05461787723443007</v>
       </c>
       <c r="E61">
-        <v>-0.02126463181225131</v>
+        <v>0.01174700310089039</v>
       </c>
       <c r="F61">
-        <v>0.006748643356943424</v>
+        <v>-0.03137784692113717</v>
       </c>
       <c r="G61">
-        <v>0.07864914413966757</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.02567206093576826</v>
+      </c>
+      <c r="H61">
+        <v>-0.05702558524963735</v>
+      </c>
+      <c r="I61">
+        <v>0.03213341360342412</v>
+      </c>
+      <c r="J61">
+        <v>-0.02462843464753699</v>
+      </c>
+      <c r="K61">
+        <v>0.01589233822617471</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.00252206178396004</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.01332515957647784</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.00426637019163232</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.00826407591573115</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.01426211828549066</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.01707536398122049</v>
+      </c>
+      <c r="H62">
+        <v>-0.003255149866032884</v>
+      </c>
+      <c r="I62">
+        <v>0.05690060481076167</v>
+      </c>
+      <c r="J62">
+        <v>0.02424581216728618</v>
+      </c>
+      <c r="K62">
+        <v>0.01374866416640581</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.004762949452545842</v>
+        <v>0.02656192732142727</v>
       </c>
       <c r="C63">
-        <v>-0.06004603039388252</v>
+        <v>-0.06700905637368644</v>
       </c>
       <c r="D63">
-        <v>0.04061179707682118</v>
+        <v>-0.06087175366096744</v>
       </c>
       <c r="E63">
-        <v>-0.02601028270603327</v>
+        <v>0.009204394632894217</v>
       </c>
       <c r="F63">
-        <v>-0.005749133337388455</v>
+        <v>-0.01980245276382461</v>
       </c>
       <c r="G63">
-        <v>0.02870186447949087</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.003532262719538087</v>
+      </c>
+      <c r="H63">
+        <v>-0.05751005869057608</v>
+      </c>
+      <c r="I63">
+        <v>0.04018802577370278</v>
+      </c>
+      <c r="J63">
+        <v>-0.004975539993736845</v>
+      </c>
+      <c r="K63">
+        <v>0.0135743510478218</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.002330540738385537</v>
+        <v>0.01462736729311618</v>
       </c>
       <c r="C64">
-        <v>-0.07968160141929292</v>
+        <v>-0.09121029608969433</v>
       </c>
       <c r="D64">
-        <v>0.06600871334007881</v>
+        <v>-0.03378418281957082</v>
       </c>
       <c r="E64">
-        <v>0.007929122675580278</v>
+        <v>-0.02689352191525099</v>
       </c>
       <c r="F64">
-        <v>-0.02315835129052871</v>
+        <v>0.02426531997014918</v>
       </c>
       <c r="G64">
-        <v>0.05200290450402158</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.06869052695668372</v>
+      </c>
+      <c r="H64">
+        <v>-0.0516214423776622</v>
+      </c>
+      <c r="I64">
+        <v>0.03122946976927567</v>
+      </c>
+      <c r="J64">
+        <v>-0.03693363558161578</v>
+      </c>
+      <c r="K64">
+        <v>0.01487006717585672</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.009594661468596043</v>
+        <v>0.02995931039660689</v>
       </c>
       <c r="C65">
-        <v>-0.08317050345390783</v>
+        <v>-0.09617433234559077</v>
       </c>
       <c r="D65">
-        <v>0.02973360394827424</v>
+        <v>-0.02248278382272708</v>
       </c>
       <c r="E65">
-        <v>0.03549671493370708</v>
+        <v>-0.01087457307740082</v>
       </c>
       <c r="F65">
-        <v>-0.02894448818325132</v>
+        <v>0.000127910559433263</v>
       </c>
       <c r="G65">
-        <v>0.03526105208203284</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.09178422678274073</v>
+      </c>
+      <c r="H65">
+        <v>-0.004828980671854113</v>
+      </c>
+      <c r="I65">
+        <v>-0.007709019815459109</v>
+      </c>
+      <c r="J65">
+        <v>-0.08779717808998649</v>
+      </c>
+      <c r="K65">
+        <v>-0.09512263157980562</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.003272270704276584</v>
+        <v>0.01348083223204822</v>
       </c>
       <c r="C66">
-        <v>-0.1720760144971624</v>
+        <v>-0.1659197250102611</v>
       </c>
       <c r="D66">
-        <v>0.03077873217202047</v>
+        <v>-0.04883425504262357</v>
       </c>
       <c r="E66">
-        <v>0.04864941644029491</v>
+        <v>0.01822351343684915</v>
       </c>
       <c r="F66">
-        <v>-0.01776892383259476</v>
+        <v>0.009949182083681231</v>
       </c>
       <c r="G66">
-        <v>0.09607202927939397</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.0258447431067457</v>
+      </c>
+      <c r="H66">
+        <v>-0.06351031710623538</v>
+      </c>
+      <c r="I66">
+        <v>0.02423386582266754</v>
+      </c>
+      <c r="J66">
+        <v>-0.05258996763660552</v>
+      </c>
+      <c r="K66">
+        <v>-0.02473998468284003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.02776956624273678</v>
+        <v>0.02082293054693675</v>
       </c>
       <c r="C67">
-        <v>-0.03589182704028709</v>
+        <v>-0.05128651990566264</v>
       </c>
       <c r="D67">
-        <v>0.06622921244020569</v>
+        <v>-0.04705843871988906</v>
       </c>
       <c r="E67">
-        <v>-0.03730485188290916</v>
+        <v>-0.02396412285599761</v>
       </c>
       <c r="F67">
-        <v>0.00206618859710099</v>
+        <v>-0.02304870009216016</v>
       </c>
       <c r="G67">
-        <v>0.02604889536771429</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.02112833670898115</v>
+      </c>
+      <c r="H67">
+        <v>-0.05566755231463161</v>
+      </c>
+      <c r="I67">
+        <v>-0.04326157856694417</v>
+      </c>
+      <c r="J67">
+        <v>0.04531480456498119</v>
+      </c>
+      <c r="K67">
+        <v>0.05119518045541064</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.2935727155597303</v>
+        <v>0.2962402851647157</v>
       </c>
       <c r="C68">
-        <v>0.02337481005879318</v>
+        <v>0.06714749300650064</v>
       </c>
       <c r="D68">
-        <v>-0.02216400106506056</v>
+        <v>0.02350243547743228</v>
       </c>
       <c r="E68">
-        <v>0.03091560205908336</v>
+        <v>0.006834833503249505</v>
       </c>
       <c r="F68">
-        <v>-0.006485668191549313</v>
+        <v>0.03493068289271016</v>
       </c>
       <c r="G68">
-        <v>-0.01001056393930812</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.02086871651471501</v>
+      </c>
+      <c r="H68">
+        <v>-0.02519154277015954</v>
+      </c>
+      <c r="I68">
+        <v>0.047964655651515</v>
+      </c>
+      <c r="J68">
+        <v>0.05303792616245059</v>
+      </c>
+      <c r="K68">
+        <v>0.003147739823289973</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.012383571753352</v>
+        <v>0.007393913552976977</v>
       </c>
       <c r="C69">
-        <v>-0.0526919774610549</v>
+        <v>-0.04870051004114902</v>
       </c>
       <c r="D69">
-        <v>0.05047202596057267</v>
+        <v>-0.02565474112444469</v>
       </c>
       <c r="E69">
-        <v>-0.0217201048240186</v>
+        <v>0.002237925202561287</v>
       </c>
       <c r="F69">
-        <v>0.002013538015138324</v>
+        <v>-0.01454938255830487</v>
       </c>
       <c r="G69">
-        <v>0.02408487967814886</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02621734699486706</v>
+      </c>
+      <c r="H69">
+        <v>-0.03896917393687476</v>
+      </c>
+      <c r="I69">
+        <v>-0.001613697203301607</v>
+      </c>
+      <c r="J69">
+        <v>0.02150693626870488</v>
+      </c>
+      <c r="K69">
+        <v>0.005537508560407239</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.284499115339738</v>
+        <v>0.2776616315554123</v>
       </c>
       <c r="C71">
-        <v>0.03556212235681348</v>
+        <v>0.0726064797518297</v>
       </c>
       <c r="D71">
-        <v>-0.02927606267638909</v>
+        <v>0.02324757995096043</v>
       </c>
       <c r="E71">
-        <v>0.01676720183622133</v>
+        <v>-0.01401227291580094</v>
       </c>
       <c r="F71">
-        <v>-0.02405036690183644</v>
+        <v>0.05973180162981234</v>
       </c>
       <c r="G71">
-        <v>-0.001970893481777728</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.02415821513789799</v>
+      </c>
+      <c r="H71">
+        <v>-0.05184721628276973</v>
+      </c>
+      <c r="I71">
+        <v>-0.0007055857372819238</v>
+      </c>
+      <c r="J71">
+        <v>0.1254259090750034</v>
+      </c>
+      <c r="K71">
+        <v>-0.03155655712959766</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.02219256629433921</v>
+        <v>0.05350728803279923</v>
       </c>
       <c r="C72">
-        <v>-0.1550671925281386</v>
+        <v>-0.1412374924146025</v>
       </c>
       <c r="D72">
-        <v>0.06608049785663697</v>
+        <v>-0.04490725790056204</v>
       </c>
       <c r="E72">
-        <v>0.004620928827022527</v>
+        <v>0.01527719194060147</v>
       </c>
       <c r="F72">
-        <v>-0.09340425100126057</v>
+        <v>-0.04163925265146894</v>
       </c>
       <c r="G72">
-        <v>0.1233480935383355</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.0231775906195154</v>
+      </c>
+      <c r="H72">
+        <v>-0.03474877748275852</v>
+      </c>
+      <c r="I72">
+        <v>0.0278763234135685</v>
+      </c>
+      <c r="J72">
+        <v>-0.1244183781303028</v>
+      </c>
+      <c r="K72">
+        <v>-0.07684036290778148</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.06939629433944483</v>
+        <v>0.1495950972091956</v>
       </c>
       <c r="C73">
-        <v>-0.1140290249627999</v>
+        <v>-0.1949575397520219</v>
       </c>
       <c r="D73">
-        <v>0.113493590953637</v>
+        <v>-0.08708842710152719</v>
       </c>
       <c r="E73">
-        <v>-0.1305053472125317</v>
+        <v>0.01545247452451455</v>
       </c>
       <c r="F73">
-        <v>0.1028119773215019</v>
+        <v>-0.2397122143415635</v>
       </c>
       <c r="G73">
-        <v>0.4293218140326637</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.3813999654602407</v>
+      </c>
+      <c r="H73">
+        <v>0.3043989015663688</v>
+      </c>
+      <c r="I73">
+        <v>-0.08430527629608438</v>
+      </c>
+      <c r="J73">
+        <v>0.07067763556955141</v>
+      </c>
+      <c r="K73">
+        <v>-0.06938287537933009</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.01047093570887173</v>
+        <v>0.03902802248968112</v>
       </c>
       <c r="C74">
-        <v>-0.08823939534815894</v>
+        <v>-0.1002254606900396</v>
       </c>
       <c r="D74">
-        <v>0.07110614891317144</v>
+        <v>-0.04875079786777201</v>
       </c>
       <c r="E74">
-        <v>-0.07385304237540596</v>
+        <v>-0.007297582260786692</v>
       </c>
       <c r="F74">
-        <v>0.05757114877775821</v>
+        <v>-0.04216792233929476</v>
       </c>
       <c r="G74">
-        <v>-0.0122535892556329</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.04464069715328461</v>
+      </c>
+      <c r="H74">
+        <v>0.006605577496225726</v>
+      </c>
+      <c r="I74">
+        <v>0.04976486946767254</v>
+      </c>
+      <c r="J74">
+        <v>0.01874162359948644</v>
+      </c>
+      <c r="K74">
+        <v>-0.03240663686158941</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.05147862828356415</v>
+        <v>0.06302247443064352</v>
       </c>
       <c r="C75">
-        <v>-0.1482692916491029</v>
+        <v>-0.1655340791074693</v>
       </c>
       <c r="D75">
-        <v>0.08665687839483389</v>
+        <v>-0.08576224138926651</v>
       </c>
       <c r="E75">
-        <v>-0.1753791512216044</v>
+        <v>-0.03826593603661869</v>
       </c>
       <c r="F75">
-        <v>0.09929515669357601</v>
+        <v>-0.1178867017194208</v>
       </c>
       <c r="G75">
-        <v>-0.141956322380906</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.2268387978491986</v>
+      </c>
+      <c r="H75">
+        <v>0.03243655129212551</v>
+      </c>
+      <c r="I75">
+        <v>0.006172987057148067</v>
+      </c>
+      <c r="J75">
+        <v>0.132804039607356</v>
+      </c>
+      <c r="K75">
+        <v>0.09050320950181188</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.0195671670665711</v>
+        <v>0.04185842139072664</v>
       </c>
       <c r="C76">
-        <v>-0.1063591651274176</v>
+        <v>-0.1212461750659869</v>
       </c>
       <c r="D76">
-        <v>0.06043805026534546</v>
+        <v>-0.07330936666024343</v>
       </c>
       <c r="E76">
-        <v>-0.08267729059802113</v>
+        <v>0.01391456155531014</v>
       </c>
       <c r="F76">
-        <v>0.08789578800301223</v>
+        <v>-0.08698561815473378</v>
       </c>
       <c r="G76">
-        <v>-0.01564125821363593</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.07765219113106507</v>
+      </c>
+      <c r="H76">
+        <v>0.02113207696887558</v>
+      </c>
+      <c r="I76">
+        <v>0.06418103963447756</v>
+      </c>
+      <c r="J76">
+        <v>0.004690024547941362</v>
+      </c>
+      <c r="K76">
+        <v>0.02195434171913922</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.07409474740672575</v>
+        <v>0.05268627483894788</v>
       </c>
       <c r="C77">
-        <v>-0.3236382018868962</v>
+        <v>-0.4047634979874547</v>
       </c>
       <c r="D77">
-        <v>-0.8489176825165803</v>
+        <v>0.8969728312968388</v>
       </c>
       <c r="E77">
-        <v>-0.312163893337877</v>
+        <v>-0.03258607541213019</v>
       </c>
       <c r="F77">
-        <v>0.04554160870018911</v>
+        <v>-0.09012394422584616</v>
       </c>
       <c r="G77">
-        <v>0.05510938377515016</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.03095136448153073</v>
+      </c>
+      <c r="H77">
+        <v>-0.0507418469555203</v>
+      </c>
+      <c r="I77">
+        <v>0.03396538791829883</v>
+      </c>
+      <c r="J77">
+        <v>0.01254104327509848</v>
+      </c>
+      <c r="K77">
+        <v>0.007637773704532426</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.02187704907441719</v>
+        <v>0.03368067301876386</v>
       </c>
       <c r="C78">
-        <v>-0.1452190265121717</v>
+        <v>-0.1140814862920952</v>
       </c>
       <c r="D78">
-        <v>0.1026903635821301</v>
+        <v>-0.09709811977364459</v>
       </c>
       <c r="E78">
-        <v>0.06935148470520938</v>
+        <v>0.04706067000426244</v>
       </c>
       <c r="F78">
-        <v>0.1032690156349531</v>
+        <v>-0.002485980157330692</v>
       </c>
       <c r="G78">
-        <v>-0.0427426306964483</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.1166402546665101</v>
+      </c>
+      <c r="H78">
+        <v>-0.06625721092034212</v>
+      </c>
+      <c r="I78">
+        <v>-0.01440089551044404</v>
+      </c>
+      <c r="J78">
+        <v>-0.06464964162355437</v>
+      </c>
+      <c r="K78">
+        <v>-0.4391633978311499</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.02661044931711553</v>
+        <v>0.05468057839173255</v>
       </c>
       <c r="C79">
-        <v>-0.177418954985656</v>
+        <v>-0.1430057060496804</v>
       </c>
       <c r="D79">
-        <v>0.1174999096465671</v>
+        <v>-0.06914193705730172</v>
       </c>
       <c r="E79">
-        <v>-0.112410768917746</v>
+        <v>0.01815707884808706</v>
       </c>
       <c r="F79">
-        <v>0.1526238055718623</v>
+        <v>-0.06840191295821811</v>
       </c>
       <c r="G79">
-        <v>-0.1628917331086346</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.2322528763858276</v>
+      </c>
+      <c r="H79">
+        <v>0.003288835168260292</v>
+      </c>
+      <c r="I79">
+        <v>0.03112535479883106</v>
+      </c>
+      <c r="J79">
+        <v>0.1006515372535095</v>
+      </c>
+      <c r="K79">
+        <v>-0.04496008377273501</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.009967855527644533</v>
+        <v>0.02039115501645891</v>
       </c>
       <c r="C80">
-        <v>-0.04048699775630515</v>
+        <v>-0.04808039385793268</v>
       </c>
       <c r="D80">
-        <v>0.05445224075807554</v>
+        <v>-0.0402080560201779</v>
       </c>
       <c r="E80">
-        <v>0.01490619695955689</v>
+        <v>0.04586830047493839</v>
       </c>
       <c r="F80">
-        <v>0.03741023037422952</v>
+        <v>0.02892708167209113</v>
       </c>
       <c r="G80">
-        <v>-0.008819481823247249</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.06454253837417977</v>
+      </c>
+      <c r="H80">
+        <v>0.03058636469201866</v>
+      </c>
+      <c r="I80">
+        <v>-0.03204798620036202</v>
+      </c>
+      <c r="J80">
+        <v>0.03270199285542977</v>
+      </c>
+      <c r="K80">
+        <v>0.06653366984208725</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.00644194271302146</v>
+        <v>0.0163087995000766</v>
       </c>
       <c r="C81">
-        <v>-0.07191398971854721</v>
+        <v>-0.09796688507781359</v>
       </c>
       <c r="D81">
-        <v>0.07895492569075702</v>
+        <v>-0.05483922315930737</v>
       </c>
       <c r="E81">
-        <v>-0.09061458654139903</v>
+        <v>0.01389573505710402</v>
       </c>
       <c r="F81">
-        <v>0.09504514591788567</v>
+        <v>-0.05056759029097894</v>
       </c>
       <c r="G81">
-        <v>-0.05268223439745316</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.114060017231504</v>
+      </c>
+      <c r="H81">
+        <v>-0.04059567076527115</v>
+      </c>
+      <c r="I81">
+        <v>0.02389321454744387</v>
+      </c>
+      <c r="J81">
+        <v>0.06182551104905702</v>
+      </c>
+      <c r="K81">
+        <v>0.02197500191566724</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.02361478462931792</v>
+        <v>0.0447212116915123</v>
       </c>
       <c r="C82">
-        <v>-0.08122851821204283</v>
+        <v>-0.1006844202560846</v>
       </c>
       <c r="D82">
-        <v>0.07327459224922886</v>
+        <v>-0.06734343322167251</v>
       </c>
       <c r="E82">
-        <v>-0.1038871548246296</v>
+        <v>0.0193628226663582</v>
       </c>
       <c r="F82">
-        <v>0.07979348550253947</v>
+        <v>-0.07854190927810296</v>
       </c>
       <c r="G82">
-        <v>-0.00904176701727964</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.09062678045941405</v>
+      </c>
+      <c r="H82">
+        <v>-0.00309270098886225</v>
+      </c>
+      <c r="I82">
+        <v>0.02302697519618518</v>
+      </c>
+      <c r="J82">
+        <v>0.02269027752996889</v>
+      </c>
+      <c r="K82">
+        <v>0.003093959500462056</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.001767731116184031</v>
+        <v>-0.001641874779647771</v>
       </c>
       <c r="C83">
-        <v>-0.02514418001942608</v>
+        <v>0.0240422604748897</v>
       </c>
       <c r="D83">
-        <v>-0.1808798471022066</v>
+        <v>0.06767927776390466</v>
       </c>
       <c r="E83">
-        <v>0.5792730398864773</v>
+        <v>0.9525815920273853</v>
       </c>
       <c r="F83">
-        <v>0.7172434246500584</v>
+        <v>0.1293764869214397</v>
       </c>
       <c r="G83">
-        <v>0.00333266513268029</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.03961367118557402</v>
+      </c>
+      <c r="H83">
+        <v>0.09858808381536968</v>
+      </c>
+      <c r="I83">
+        <v>0.02031907908722312</v>
+      </c>
+      <c r="J83">
+        <v>-0.05906979346870101</v>
+      </c>
+      <c r="K83">
+        <v>-0.02080579978675591</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.004787086292475775</v>
+        <v>-9.313324031595285e-05</v>
       </c>
       <c r="C84">
-        <v>-0.07334367897052803</v>
+        <v>-0.04607827226614705</v>
       </c>
       <c r="D84">
-        <v>0.03984056524855629</v>
+        <v>-0.06265395347998368</v>
       </c>
       <c r="E84">
-        <v>0.06501565745905216</v>
+        <v>-0.02456629578207808</v>
       </c>
       <c r="F84">
-        <v>-0.1410346745685759</v>
+        <v>0.0897191242084979</v>
       </c>
       <c r="G84">
-        <v>-0.07595861492607245</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.04117436131770476</v>
+      </c>
+      <c r="H84">
+        <v>-0.08724117956186464</v>
+      </c>
+      <c r="I84">
+        <v>0.07912253642216666</v>
+      </c>
+      <c r="J84">
+        <v>-0.1018691533983458</v>
+      </c>
+      <c r="K84">
+        <v>0.06538342209347059</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.01280766081207049</v>
+        <v>0.02851215201243678</v>
       </c>
       <c r="C85">
-        <v>-0.1287923232609114</v>
+        <v>-0.1168019152771418</v>
       </c>
       <c r="D85">
-        <v>0.08821424590879151</v>
+        <v>-0.08209714194825959</v>
       </c>
       <c r="E85">
-        <v>-0.1187865679772781</v>
+        <v>0.01795163092669252</v>
       </c>
       <c r="F85">
-        <v>0.1407150980045205</v>
+        <v>-0.1326554307421822</v>
       </c>
       <c r="G85">
-        <v>-0.1082785979299877</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.2138090866799669</v>
+      </c>
+      <c r="H85">
+        <v>0.04866488488498254</v>
+      </c>
+      <c r="I85">
+        <v>0.09606182316607734</v>
+      </c>
+      <c r="J85">
+        <v>0.1050069651598808</v>
+      </c>
+      <c r="K85">
+        <v>0.045012588609247</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.01655270474614655</v>
+        <v>0.01463531327338502</v>
       </c>
       <c r="C86">
-        <v>-0.07708402298335675</v>
+        <v>-0.0827072800265974</v>
       </c>
       <c r="D86">
-        <v>-0.03300952480283332</v>
+        <v>-0.02896492245896637</v>
       </c>
       <c r="E86">
-        <v>0.01719405321145185</v>
+        <v>-0.005017447259179605</v>
       </c>
       <c r="F86">
-        <v>-0.06709015039855107</v>
+        <v>0.08566050917186117</v>
       </c>
       <c r="G86">
-        <v>0.04501121909687904</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.04738991636494493</v>
+      </c>
+      <c r="H86">
+        <v>-0.007915584400940579</v>
+      </c>
+      <c r="I86">
+        <v>-0.1300476391055152</v>
+      </c>
+      <c r="J86">
+        <v>0.1185073505657811</v>
+      </c>
+      <c r="K86">
+        <v>-0.1777160647523427</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.02766488578459573</v>
+        <v>0.02375390810481868</v>
       </c>
       <c r="C87">
-        <v>-0.1516506309463337</v>
+        <v>-0.1168449456368086</v>
       </c>
       <c r="D87">
-        <v>0.0196436620978494</v>
+        <v>-0.01641386868598081</v>
       </c>
       <c r="E87">
-        <v>0.1008649288671774</v>
+        <v>-0.01316818076539983</v>
       </c>
       <c r="F87">
-        <v>-0.06340987719532758</v>
+        <v>0.06817701095498159</v>
       </c>
       <c r="G87">
-        <v>-0.03062410614067871</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.003506760523232316</v>
+      </c>
+      <c r="H87">
+        <v>-0.04593910988413824</v>
+      </c>
+      <c r="I87">
+        <v>0.0867040466815472</v>
+      </c>
+      <c r="J87">
+        <v>-0.06650108785028896</v>
+      </c>
+      <c r="K87">
+        <v>-0.07324330338613111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.006483626436722026</v>
+        <v>0.03849061541996492</v>
       </c>
       <c r="C88">
-        <v>-0.03905404452820421</v>
+        <v>-0.06430723996306965</v>
       </c>
       <c r="D88">
-        <v>0.05450338099556393</v>
+        <v>-0.04556291885120984</v>
       </c>
       <c r="E88">
-        <v>-0.05488564494922957</v>
+        <v>-0.006940041350286243</v>
       </c>
       <c r="F88">
-        <v>0.02506822350728598</v>
+        <v>-0.02457595381159087</v>
       </c>
       <c r="G88">
-        <v>0.02147976420505682</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02681023468590794</v>
+      </c>
+      <c r="H88">
+        <v>-2.739953824495167e-06</v>
+      </c>
+      <c r="I88">
+        <v>0.01601042001054001</v>
+      </c>
+      <c r="J88">
+        <v>0.02222623245423592</v>
+      </c>
+      <c r="K88">
+        <v>0.07497340408853567</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.387995266871938</v>
+        <v>0.391058871353585</v>
       </c>
       <c r="C89">
-        <v>0.07930639928817244</v>
+        <v>0.1140046389936674</v>
       </c>
       <c r="D89">
-        <v>0.1101778361065753</v>
+        <v>0.03331851366411168</v>
       </c>
       <c r="E89">
-        <v>0.08105528547863305</v>
+        <v>-0.04234785961450029</v>
       </c>
       <c r="F89">
-        <v>-0.06977159099654366</v>
+        <v>0.05664351338109665</v>
       </c>
       <c r="G89">
-        <v>-0.07911086396382122</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.03840614357256152</v>
+      </c>
+      <c r="H89">
+        <v>-0.02044330188639704</v>
+      </c>
+      <c r="I89">
+        <v>0.1512900927476793</v>
+      </c>
+      <c r="J89">
+        <v>-0.7191749917377929</v>
+      </c>
+      <c r="K89">
+        <v>-0.01246866901981722</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.3068996396173413</v>
+        <v>0.316332184058647</v>
       </c>
       <c r="C90">
-        <v>0.02529707253712021</v>
+        <v>0.07322702295659431</v>
       </c>
       <c r="D90">
-        <v>-0.01014923225581942</v>
+        <v>0.01825807690580793</v>
       </c>
       <c r="E90">
-        <v>0.07487361189705662</v>
+        <v>0.00729719449158638</v>
       </c>
       <c r="F90">
-        <v>0.01410596798519412</v>
+        <v>0.03848806265962904</v>
       </c>
       <c r="G90">
-        <v>0.01501475130465348</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.01029742871230615</v>
+      </c>
+      <c r="H90">
+        <v>-0.02301630156414601</v>
+      </c>
+      <c r="I90">
+        <v>-0.01131231656259436</v>
+      </c>
+      <c r="J90">
+        <v>0.08244031895208868</v>
+      </c>
+      <c r="K90">
+        <v>-0.003116281605929175</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.03126376625901216</v>
+        <v>0.05305087986201353</v>
       </c>
       <c r="C91">
-        <v>-0.08521113247237323</v>
+        <v>-0.0832931265381826</v>
       </c>
       <c r="D91">
-        <v>0.05472085217979952</v>
+        <v>-0.04686620979039274</v>
       </c>
       <c r="E91">
-        <v>-0.06332204446314223</v>
+        <v>0.03897081083795343</v>
       </c>
       <c r="F91">
-        <v>0.08426579325832535</v>
+        <v>-0.05573394662364396</v>
       </c>
       <c r="G91">
-        <v>-0.04638252347367212</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.07895104481071649</v>
+      </c>
+      <c r="H91">
+        <v>0.03417377627396122</v>
+      </c>
+      <c r="I91">
+        <v>0.007952263197666913</v>
+      </c>
+      <c r="J91">
+        <v>0.003930477823205411</v>
+      </c>
+      <c r="K91">
+        <v>0.05401694456354703</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.3845277906529299</v>
+        <v>0.3544662347249198</v>
       </c>
       <c r="C92">
-        <v>0.06770849768007378</v>
+        <v>0.1185095532062944</v>
       </c>
       <c r="D92">
-        <v>-0.01179791150349263</v>
+        <v>0.05386406460611276</v>
       </c>
       <c r="E92">
-        <v>-0.03699900205474836</v>
+        <v>-0.0423231388184961</v>
       </c>
       <c r="F92">
-        <v>-0.1051376325854753</v>
+        <v>0.04792851820208219</v>
       </c>
       <c r="G92">
-        <v>-0.026624275255876</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.01385055088206556</v>
+      </c>
+      <c r="H92">
+        <v>-0.06546505766850955</v>
+      </c>
+      <c r="I92">
+        <v>-0.03393341952277988</v>
+      </c>
+      <c r="J92">
+        <v>0.1449742949414008</v>
+      </c>
+      <c r="K92">
+        <v>0.01234059490124555</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.3034760976103328</v>
+        <v>0.3114233960180522</v>
       </c>
       <c r="C93">
-        <v>0.07456638481770521</v>
+        <v>0.1121371949369487</v>
       </c>
       <c r="D93">
-        <v>0.0115072556865617</v>
+        <v>0.008822211643463163</v>
       </c>
       <c r="E93">
-        <v>0.05988427416204091</v>
+        <v>-0.004399422328070131</v>
       </c>
       <c r="F93">
-        <v>-0.03373509837175206</v>
+        <v>0.03524338731576997</v>
       </c>
       <c r="G93">
-        <v>-0.02674355628276269</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.04233332647006066</v>
+      </c>
+      <c r="H93">
+        <v>-0.03084293216319131</v>
+      </c>
+      <c r="I93">
+        <v>-0.04839333709941264</v>
+      </c>
+      <c r="J93">
+        <v>0.09311880294782378</v>
+      </c>
+      <c r="K93">
+        <v>-0.0168606874606806</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.03992910253811935</v>
+        <v>0.0759211389199529</v>
       </c>
       <c r="C94">
-        <v>-0.2019092044210102</v>
+        <v>-0.1606334812992104</v>
       </c>
       <c r="D94">
-        <v>0.1661684629350228</v>
+        <v>-0.107441328329948</v>
       </c>
       <c r="E94">
-        <v>-0.2429856155520693</v>
+        <v>0.02578034164209886</v>
       </c>
       <c r="F94">
-        <v>0.239326508060789</v>
+        <v>-0.1602522777551134</v>
       </c>
       <c r="G94">
-        <v>-0.5497017608619275</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.541529648214818</v>
+      </c>
+      <c r="H94">
+        <v>0.2166441780195335</v>
+      </c>
+      <c r="I94">
+        <v>-0.09586433073795761</v>
+      </c>
+      <c r="J94">
+        <v>-0.1798098768175624</v>
+      </c>
+      <c r="K94">
+        <v>0.2635656581790557</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.03167819339022612</v>
+        <v>0.03861355353891014</v>
       </c>
       <c r="C95">
-        <v>-0.09237558623979149</v>
+        <v>-0.1268083871580989</v>
       </c>
       <c r="D95">
-        <v>0.03176177216749755</v>
+        <v>-0.05973945788342831</v>
       </c>
       <c r="E95">
-        <v>-0.0307052625469854</v>
+        <v>-0.0169741823683599</v>
       </c>
       <c r="F95">
-        <v>0.07609123660813188</v>
+        <v>-0.07465667561678677</v>
       </c>
       <c r="G95">
-        <v>0.1195101205993411</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.05107832886527203</v>
+      </c>
+      <c r="H95">
+        <v>-0.07492699239624205</v>
+      </c>
+      <c r="I95">
+        <v>0.1167121732793482</v>
+      </c>
+      <c r="J95">
+        <v>-0.1406755395039914</v>
+      </c>
+      <c r="K95">
+        <v>0.2351133563255109</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.0008400086033144619</v>
+        <v>0.01309967165116342</v>
       </c>
       <c r="C97">
-        <v>-0.0006786016681862519</v>
+        <v>-0.01719267087099884</v>
       </c>
       <c r="D97">
-        <v>0.0002723977526260501</v>
+        <v>0.008736422838138667</v>
       </c>
       <c r="E97">
-        <v>-0.001043992802695738</v>
+        <v>-0.02837182678553255</v>
       </c>
       <c r="F97">
-        <v>-0.0005600201427604615</v>
+        <v>0.007899451955170087</v>
       </c>
       <c r="G97">
-        <v>0.001887065914656512</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.02344124661087908</v>
+      </c>
+      <c r="H97">
+        <v>-0.04531100685430468</v>
+      </c>
+      <c r="I97">
+        <v>-0.1374592015721845</v>
+      </c>
+      <c r="J97">
+        <v>-0.06669302394449053</v>
+      </c>
+      <c r="K97">
+        <v>0.008910342691040551</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.08158752148533659</v>
+        <v>0.1297915164970104</v>
       </c>
       <c r="C98">
-        <v>-0.1512366653265359</v>
+        <v>-0.1584561964680984</v>
       </c>
       <c r="D98">
-        <v>0.1236591823145143</v>
+        <v>-0.09292110860864158</v>
       </c>
       <c r="E98">
-        <v>-0.07368651063694409</v>
+        <v>0.02826378851071781</v>
       </c>
       <c r="F98">
-        <v>0.07681803738118667</v>
+        <v>-0.2167968644236035</v>
       </c>
       <c r="G98">
-        <v>0.286359363108619</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.3200827940091882</v>
+      </c>
+      <c r="H98">
+        <v>0.3298504512693628</v>
+      </c>
+      <c r="I98">
+        <v>-0.1060251529567158</v>
+      </c>
+      <c r="J98">
+        <v>0.0701263336309023</v>
+      </c>
+      <c r="K98">
+        <v>-0.06898567841656367</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.01405206349898577</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.04684087043454215</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.004239559799215117</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-0.0105628093291521</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>-0.06400086643064229</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.05790741581092666</v>
+      </c>
+      <c r="H99">
+        <v>-0.1358870124122301</v>
+      </c>
+      <c r="I99">
+        <v>-0.8706450701142728</v>
+      </c>
+      <c r="J99">
+        <v>-0.2319119828925678</v>
+      </c>
+      <c r="K99">
+        <v>-0.04681084525045267</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.005918770394538223</v>
+        <v>0.01383064246583409</v>
       </c>
       <c r="C101">
-        <v>-0.07393466186729768</v>
+        <v>-0.08074578422766701</v>
       </c>
       <c r="D101">
-        <v>0.04250240204679108</v>
+        <v>-0.05461722841209888</v>
       </c>
       <c r="E101">
-        <v>0.03443751103001819</v>
+        <v>0.05216600439097253</v>
       </c>
       <c r="F101">
-        <v>-0.004437830765443895</v>
+        <v>0.004934300467578457</v>
       </c>
       <c r="G101">
-        <v>0.09650180686252577</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1201540634558655</v>
+      </c>
+      <c r="H101">
+        <v>-0.2893787157525409</v>
+      </c>
+      <c r="I101">
+        <v>-0.003153407854986405</v>
+      </c>
+      <c r="J101">
+        <v>-0.02382780783300307</v>
+      </c>
+      <c r="K101">
+        <v>0.1900087760818178</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>0.006555956710308289</v>
+        <v>0.002666536266334233</v>
       </c>
       <c r="C102">
-        <v>-0.02481242896646199</v>
+        <v>-0.009528892362502855</v>
       </c>
       <c r="D102">
-        <v>0.004410857942134311</v>
+        <v>0.0002633248440428188</v>
       </c>
       <c r="E102">
-        <v>-0.02125620167033485</v>
+        <v>0.004316634136438225</v>
       </c>
       <c r="F102">
-        <v>0.02756041817886851</v>
+        <v>-0.007764250713971591</v>
       </c>
       <c r="G102">
-        <v>0.006346502597838941</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.001730894790651909</v>
+      </c>
+      <c r="H102">
+        <v>0.0005776171828301782</v>
+      </c>
+      <c r="I102">
+        <v>-0.001377529033572512</v>
+      </c>
+      <c r="J102">
+        <v>-0.01572850286244994</v>
+      </c>
+      <c r="K102">
+        <v>-0.003644852364492837</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
